--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value55.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value55.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.133512106617054</v>
+        <v>1.72352147102356</v>
       </c>
       <c r="B1">
-        <v>2.556978375861734</v>
+        <v>3.458930015563965</v>
       </c>
       <c r="C1">
-        <v>2.875635954009379</v>
+        <v>3.972855091094971</v>
       </c>
       <c r="D1">
-        <v>1.78497581354346</v>
+        <v>3.458053350448608</v>
       </c>
       <c r="E1">
-        <v>0.8552726026380953</v>
+        <v>1.109869360923767</v>
       </c>
     </row>
   </sheetData>
